--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/DropoutStudentsAscendingWithSorting.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/DropoutStudentsAscendingWithSorting.xlsx
@@ -26,6 +26,15 @@
     <t>Midle name</t>
   </si>
   <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Ivanova</t>
+  </si>
+  <si>
+    <t>Ivanovna</t>
+  </si>
+  <si>
     <t>Sergey</t>
   </si>
   <si>
@@ -35,15 +44,6 @@
     <t>Sergeevich</t>
   </si>
   <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Ivanova</t>
-  </si>
-  <si>
-    <t>Ivanovna</t>
-  </si>
-  <si>
     <t>Alexandra</t>
   </si>
   <si>
@@ -62,6 +62,15 @@
     <t>Stepanovich</t>
   </si>
   <si>
+    <t>Ilya</t>
+  </si>
+  <si>
+    <t>Ilyn</t>
+  </si>
+  <si>
+    <t>Ivanovich</t>
+  </si>
+  <si>
     <t>Ecaterina</t>
   </si>
   <si>
@@ -69,15 +78,6 @@
   </si>
   <si>
     <t>Alecseevna</t>
-  </si>
-  <si>
-    <t>Ilya</t>
-  </si>
-  <si>
-    <t>Ilyn</t>
-  </si>
-  <si>
-    <t>Ivanovich</t>
   </si>
 </sst>
 </file>
